--- a/Tabellen/Ergebnisse_West_Modell_II.xlsx
+++ b/Tabellen/Ergebnisse_West_Modell_II.xlsx
@@ -48,10 +48,10 @@
     <t xml:space="preserve">wandssaldo</t>
   </si>
   <si>
+    <t xml:space="preserve">einkommen</t>
+  </si>
+  <si>
     <t xml:space="preserve">einkommen_sq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">einkommen</t>
   </si>
   <si>
     <t xml:space="preserve">group</t>
@@ -480,13 +480,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>-0.35</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01</v>
+        <v>-0.06</v>
       </c>
       <c r="E5" t="n">
         <v>0.01</v>
@@ -500,13 +500,13 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.35</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.06</v>
+        <v>0.01</v>
       </c>
       <c r="E6" t="n">
         <v>0.01</v>
